--- a/document/osbulkparts/importTemp/物料信息.xlsx
+++ b/document/osbulkparts/importTemp/物料信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="78">
   <si>
     <t>成品型号</t>
   </si>
@@ -76,7 +76,7 @@
     <t>0060303898HNR</t>
   </si>
   <si>
-    <t>22222</t>
+    <t>1</t>
   </si>
   <si>
     <t>HRF-342/382Frz黑色玻璃（连衣裙）</t>
@@ -94,9 +94,6 @@
     <t>RMB</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -109,7 +106,7 @@
     <t>CHN</t>
   </si>
   <si>
-    <t>V12982</t>
+    <t>V12981</t>
   </si>
   <si>
     <t>90C0</t>
@@ -128,9 +125,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>V12981</t>
   </si>
   <si>
     <t>0060732376HNR</t>
@@ -261,8 +255,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -293,13 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -308,6 +295,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -316,14 +348,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,29 +386,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,32 +408,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -413,31 +430,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,187 +446,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,6 +654,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,45 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -763,148 +751,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,8 +1231,8 @@
   <sheetPr/>
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1352,31 +1340,31 @@
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:18">
@@ -1384,22 +1372,22 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>24</v>
@@ -1408,31 +1396,31 @@
         <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:18">
@@ -1440,22 +1428,22 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>24</v>
@@ -1464,31 +1452,31 @@
         <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:18">
@@ -1496,22 +1484,22 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>24</v>
@@ -1520,31 +1508,31 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:18">
@@ -1552,22 +1540,22 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>24</v>
@@ -1576,31 +1564,31 @@
         <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:18">
@@ -1608,22 +1596,22 @@
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>24</v>
@@ -1632,31 +1620,31 @@
         <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:18">
@@ -1664,22 +1652,22 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>24</v>
@@ -1688,31 +1676,31 @@
         <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:18">
@@ -1720,22 +1708,22 @@
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>24</v>
@@ -1744,31 +1732,31 @@
         <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:18">
@@ -1776,22 +1764,22 @@
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>24</v>
@@ -1800,31 +1788,31 @@
         <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:18">
@@ -1832,22 +1820,22 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>24</v>
@@ -1856,31 +1844,31 @@
         <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:18">
@@ -1888,22 +1876,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>24</v>
@@ -1912,31 +1900,31 @@
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
